--- a/data/OUTPUT/OUTPUT_REPORTS/LABOUR_COMMISSION_10_06_2025_APPLICATION_FOR_THE_RECOVERY_report.xlsx
+++ b/data/OUTPUT/OUTPUT_REPORTS/LABOUR_COMMISSION_10_06_2025_APPLICATION_FOR_THE_RECOVERY_report.xlsx
@@ -479,7 +479,7 @@
         </is>
       </c>
       <c r="B2" s="2" t="n">
-        <v>45855</v>
+        <v>45874</v>
       </c>
       <c r="C2" t="n">
         <v>3</v>

--- a/data/OUTPUT/OUTPUT_REPORTS/LABOUR_COMMISSION_10_06_2025_APPLICATION_FOR_THE_RECOVERY_report.xlsx
+++ b/data/OUTPUT/OUTPUT_REPORTS/LABOUR_COMMISSION_10_06_2025_APPLICATION_FOR_THE_RECOVERY_report.xlsx
@@ -479,7 +479,7 @@
         </is>
       </c>
       <c r="B2" s="2" t="n">
-        <v>45874</v>
+        <v>45897</v>
       </c>
       <c r="C2" t="n">
         <v>3</v>
@@ -3008,7 +3008,7 @@
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>772000/19080</t>
+          <t>772000/19079</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
@@ -4618,7 +4618,7 @@
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>355555</t>
+          <t>355554</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
@@ -6203,7 +6203,7 @@
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>776000/31121</t>
+          <t>776000/31120</t>
         </is>
       </c>
       <c r="B99" t="inlineStr">
